--- a/biology/Botanique/Sapin_de_Céphalonie/Sapin_de_Céphalonie.xlsx
+++ b/biology/Botanique/Sapin_de_Céphalonie/Sapin_de_Céphalonie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sapin_de_C%C3%A9phalonie</t>
+          <t>Sapin_de_Céphalonie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Abies cephalonica
-Le sapin de Céphalonie (Abies cephalonica) est un arbre de la famille des Pinaceae, et le seul taxon parmi les Abies que l'on trouve sur des îles[2].
+Le sapin de Céphalonie (Abies cephalonica) est un arbre de la famille des Pinaceae, et le seul taxon parmi les Abies que l'on trouve sur des îles.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sapin_de_C%C3%A9phalonie</t>
+          <t>Sapin_de_Céphalonie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Grèce où elle a une très large répartition. On la trouve dans les régions d'Épire, de Macédoine-Centrale (Mont Olympe et Mont Athos), du Péloponnèse, Sterea Ellas, sur les îles Ioniennes (Céphalonie). Elle pousse entre 400 et 1 800 m d'altitude, on la trouve très rarement au-dessus de 2 000 m[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Grèce où elle a une très large répartition. On la trouve dans les régions d'Épire, de Macédoine-Centrale (Mont Olympe et Mont Athos), du Péloponnèse, Sterea Ellas, sur les îles Ioniennes (Céphalonie). Elle pousse entre 400 et 1 800 m d'altitude, on la trouve très rarement au-dessus de 2 000 m.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sapin_de_C%C3%A9phalonie</t>
+          <t>Sapin_de_Céphalonie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Organes reproducteurs :
 Type d'"inflorescence" : cône
@@ -555,7 +571,7 @@
 Mode de dissémination : anémochore
 Habitat et répartition :
 Habitat type : bois méditerranéens sempervirents
-Aire de répartition : introduit (Balkans)[4]. Endémique de Céphalonie (îles Ioniennes) et de l'Eubée (mer Égée)[2].</t>
+Aire de répartition : introduit (Balkans). Endémique de Céphalonie (îles Ioniennes) et de l'Eubée (mer Égée).</t>
         </is>
       </c>
     </row>
